--- a/examples/common_scenarios/constraints_breaches_report/breaches.xlsx
+++ b/examples/common_scenarios/constraints_breaches_report/breaches.xlsx
@@ -16,28 +16,28 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
-    <t>30-70% GC/100bp</t>
-  </si>
-  <si>
-    <t>No 20-160-20bp hairpin</t>
-  </si>
-  <si>
-    <t>No 5-repeats 3-mers</t>
-  </si>
-  <si>
-    <t>No 8-repeats 1-mers</t>
-  </si>
-  <si>
-    <t>No 9-repeats 2-mers</t>
-  </si>
-  <si>
-    <t>No BbsI</t>
-  </si>
-  <si>
-    <t>No BsaI</t>
-  </si>
-  <si>
-    <t>No BsmBI</t>
+    <t>20-160-20bp hairpin</t>
+  </si>
+  <si>
+    <t>5-repeats 3-mers</t>
+  </si>
+  <si>
+    <t>8-repeats 1-mers</t>
+  </si>
+  <si>
+    <t>9-repeats 2-mers</t>
+  </si>
+  <si>
+    <t>BbsI</t>
+  </si>
+  <si>
+    <t>BsaI</t>
+  </si>
+  <si>
+    <t>BsmBI</t>
+  </si>
+  <si>
+    <t>GC outside 30-70%/100bp</t>
   </si>
   <si>
     <t>sequence</t>
@@ -73,6 +73,51 @@
     <t>p8_Linker1.gb</t>
   </si>
   <si>
+    <t>1195-1201(+)</t>
+  </si>
+  <si>
+    <t>1206-1212(+)</t>
+  </si>
+  <si>
+    <t>1519-1525(+)</t>
+  </si>
+  <si>
+    <t>1890-1896(+)</t>
+  </si>
+  <si>
+    <t>2112-2118(+)</t>
+  </si>
+  <si>
+    <t>1236-1242(+)</t>
+  </si>
+  <si>
+    <t>1774-1780(+)</t>
+  </si>
+  <si>
+    <t>677-683(+)</t>
+  </si>
+  <si>
+    <t>72-78(-), 942-948(+)</t>
+  </si>
+  <si>
+    <t>1142-1148(+), 1190-1196(-), 1838-1844(+)</t>
+  </si>
+  <si>
+    <t>1142-1148(+), 1201-1207(-), 1849-1855(+)</t>
+  </si>
+  <si>
+    <t>5-11(-), 1155-1161(-), 1802-1808(+)</t>
+  </si>
+  <si>
+    <t>1142-1148(+), 1514-1520(-), 2162-2168(+)</t>
+  </si>
+  <si>
+    <t>1142-1148(+), 1231-1237(-), 1879-1885(+)</t>
+  </si>
+  <si>
+    <t>1142-1148(+), 1769-1775(-), 2417-2423(+)</t>
+  </si>
+  <si>
     <t>1789-2405</t>
   </si>
   <si>
@@ -80,51 +125,6 @@
   </si>
   <si>
     <t>1136-1754</t>
-  </si>
-  <si>
-    <t>1195-1201(+)</t>
-  </si>
-  <si>
-    <t>1206-1212(+)</t>
-  </si>
-  <si>
-    <t>1519-1525(+)</t>
-  </si>
-  <si>
-    <t>1890-1896(+)</t>
-  </si>
-  <si>
-    <t>2112-2118(+)</t>
-  </si>
-  <si>
-    <t>1236-1242(+)</t>
-  </si>
-  <si>
-    <t>1774-1780(+)</t>
-  </si>
-  <si>
-    <t>677-683(+)</t>
-  </si>
-  <si>
-    <t>72-78(-), 942-948(+)</t>
-  </si>
-  <si>
-    <t>1142-1148(+), 1190-1196(-), 1838-1844(+)</t>
-  </si>
-  <si>
-    <t>1142-1148(+), 1201-1207(-), 1849-1855(+)</t>
-  </si>
-  <si>
-    <t>5-11(-), 1155-1161(-), 1802-1808(+)</t>
-  </si>
-  <si>
-    <t>1142-1148(+), 1514-1520(-), 2162-2168(+)</t>
-  </si>
-  <si>
-    <t>1142-1148(+), 1231-1237(-), 1879-1885(+)</t>
-  </si>
-  <si>
-    <t>1142-1148(+), 1769-1775(-), 2417-2423(+)</t>
   </si>
 </sst>
 </file>
@@ -521,102 +521,102 @@
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
       <c r="H2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>31</v>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" t="s">
-        <v>32</v>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
-        <v>19</v>
+      <c r="H5" t="s">
+        <v>30</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" t="s">
-        <v>34</v>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" t="s">
+        <v>30</v>
       </c>
       <c r="I7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" t="s">
-        <v>33</v>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" t="s">
-        <v>35</v>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s">
-        <v>28</v>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" t="s">
+        <v>33</v>
       </c>
       <c r="I10" t="s">
         <v>36</v>
@@ -626,8 +626,8 @@
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I11" t="s">
-        <v>33</v>
+      <c r="H11" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
